--- a/presets/107網多組檢核表format.xlsx
+++ b/presets/107網多組檢核表format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lspss\OneDrive\文件\dinodino revive\dinodino_nirvana\build\web\presets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AD3ABC-B969-4D2F-B9F8-C676890853B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B1F1DA-2870-46B7-AEA4-8F5629485B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="11745" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="11745" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="網路與多媒體組" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="392">
   <si>
     <t>學年度學期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1664,6 +1664,50 @@
   <si>
     <t>&amp;{credit}#5_0_5</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_0_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;{credit}#4_3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2334,7 +2378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,6 +2506,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,17 +2578,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2501,17 +2620,146 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2522,12 +2770,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2549,196 +2791,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3366,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3383,16 +3436,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -3433,48 +3486,48 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="77"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="77"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="7"/>
@@ -3487,26 +3540,26 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
@@ -3521,19 +3574,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="132" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="46" t="s">
         <v>87</v>
       </c>
       <c r="H13" s="38">
@@ -3541,12 +3594,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="42" t="s">
         <v>376</v>
       </c>
@@ -3561,12 +3614,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="46" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="42" t="s">
         <v>377</v>
       </c>
@@ -3581,12 +3634,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>378</v>
       </c>
@@ -3601,12 +3654,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="42" t="s">
         <v>379</v>
       </c>
@@ -3621,12 +3674,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>380</v>
       </c>
@@ -3651,26 +3704,26 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="30" t="s">
         <v>25</v>
       </c>
@@ -3685,14 +3738,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="95" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="40" t="s">
         <v>104</v>
       </c>
@@ -3702,17 +3755,17 @@
       <c r="G22" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="62" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="97" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="6" t="s">
         <v>108</v>
       </c>
@@ -3722,17 +3775,17 @@
       <c r="G23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="109" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="110"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="40" t="s">
         <v>112</v>
       </c>
@@ -3742,15 +3795,15 @@
       <c r="G24" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="40" t="s">
         <v>116</v>
       </c>
@@ -3760,15 +3813,15 @@
       <c r="G25" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="76" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="40" t="s">
         <v>120</v>
       </c>
@@ -3778,15 +3831,15 @@
       <c r="G26" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="107"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="41" t="s">
         <v>124</v>
       </c>
@@ -3796,7 +3849,7 @@
       <c r="G27" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="7"/>
@@ -3809,26 +3862,26 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="88" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="94"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="30" t="s">
         <v>25</v>
       </c>
@@ -3843,54 +3896,54 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="119"/>
+      <c r="C31" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="133" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="133" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="99" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="46" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="132" t="s">
+      <c r="D32" s="66"/>
+      <c r="E32" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="46" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="42" t="s">
-        <v>135</v>
+      <c r="D33" s="66"/>
+      <c r="E33" s="44" t="s">
+        <v>383</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>136</v>
@@ -3898,17 +3951,17 @@
       <c r="G33" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="75"/>
+      <c r="H33" s="99"/>
     </row>
     <row r="34" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="97" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="98"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="6" t="s">
-        <v>138</v>
+        <v>384</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>139</v>
@@ -3916,39 +3969,39 @@
       <c r="G34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="75"/>
+      <c r="H34" s="99"/>
     </row>
     <row r="35" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="132" t="s">
+      <c r="D35" s="125"/>
+      <c r="E35" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="132" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="75"/>
+      <c r="H35" s="99"/>
     </row>
     <row r="36" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="125" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="41" t="s">
-        <v>144</v>
+      <c r="D36" s="127"/>
+      <c r="E36" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>145</v>
@@ -3956,19 +4009,19 @@
       <c r="G36" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="75"/>
+      <c r="H36" s="99"/>
     </row>
     <row r="37" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="129"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="8" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>148</v>
@@ -3976,17 +4029,17 @@
       <c r="G37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="99"/>
     </row>
     <row r="38" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A38" s="127"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="115" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="123"/>
       <c r="E38" s="34" t="s">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>151</v>
@@ -3994,19 +4047,19 @@
       <c r="G38" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="99"/>
     </row>
     <row r="39" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="113"/>
-      <c r="C39" s="130" t="s">
+      <c r="B39" s="120"/>
+      <c r="C39" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="131"/>
-      <c r="E39" s="40" t="s">
-        <v>153</v>
+      <c r="D39" s="59"/>
+      <c r="E39" s="43" t="s">
+        <v>389</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>154</v>
@@ -4014,17 +4067,17 @@
       <c r="G39" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="99"/>
     </row>
     <row r="40" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="41" t="s">
-        <v>156</v>
+      <c r="D40" s="102"/>
+      <c r="E40" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="F40" s="41" t="s">
         <v>157</v>
@@ -4032,17 +4085,17 @@
       <c r="G40" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="99"/>
     </row>
     <row r="41" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="76" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="41" t="s">
-        <v>159</v>
+      <c r="D41" s="102"/>
+      <c r="E41" s="45" t="s">
+        <v>391</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>160</v>
@@ -4050,17 +4103,17 @@
       <c r="G41" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="75"/>
+      <c r="H41" s="99"/>
     </row>
     <row r="42" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="51" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="31" t="s">
         <v>23</v>
       </c>
@@ -4075,9 +4128,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A43" s="90"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="60" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="128" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="21" t="s">
@@ -4097,9 +4150,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A44" s="90"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="20" t="s">
         <v>7</v>
       </c>
@@ -4117,9 +4170,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="61"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="20" t="s">
         <v>8</v>
       </c>
@@ -4137,9 +4190,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A46" s="90"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="20" t="s">
         <v>9</v>
       </c>
@@ -4157,9 +4210,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A47" s="90"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="20" t="s">
         <v>10</v>
       </c>
@@ -4177,9 +4230,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A48" s="90"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="25" t="s">
         <v>11</v>
       </c>
@@ -4197,12 +4250,12 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A49" s="90"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="63" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="9">
         <v>4</v>
       </c>
@@ -4217,12 +4270,12 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A50" s="90"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="63" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="9">
         <v>4</v>
       </c>
@@ -4237,12 +4290,12 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A51" s="90"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="63" t="s">
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="9">
         <v>3</v>
       </c>
@@ -4257,12 +4310,12 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A52" s="90"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="63" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="9">
         <v>3</v>
       </c>
@@ -4277,12 +4330,12 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A53" s="90"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="63" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="9">
         <v>3</v>
       </c>
@@ -4297,12 +4350,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A54" s="90"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="63" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="9">
         <v>3</v>
       </c>
@@ -4317,12 +4370,12 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A55" s="90"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="63" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="9">
         <v>3</v>
       </c>
@@ -4337,12 +4390,12 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A56" s="90"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="63" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="9">
         <v>3</v>
       </c>
@@ -4357,12 +4410,12 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A57" s="90"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="63" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="64"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="9">
         <v>3</v>
       </c>
@@ -4377,12 +4430,12 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A58" s="90"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="63" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="64"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="9">
         <v>3</v>
       </c>
@@ -4397,12 +4450,12 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A59" s="90"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="63" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="64"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="9">
         <v>3</v>
       </c>
@@ -4417,12 +4470,12 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A60" s="90"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="63" t="s">
+      <c r="A60" s="69"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="64"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="9">
         <v>3</v>
       </c>
@@ -4437,12 +4490,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="63" t="s">
+      <c r="A61" s="69"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="64"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="9">
         <v>2</v>
       </c>
@@ -4457,12 +4510,12 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A62" s="90"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="63" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="64"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="9">
         <v>2</v>
       </c>
@@ -4477,12 +4530,12 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A63" s="90"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="63" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="64"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="9">
         <v>0</v>
       </c>
@@ -4497,12 +4550,12 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A64" s="90"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="63" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="9">
         <v>0</v>
       </c>
@@ -4517,12 +4570,12 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A65" s="90"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="63" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="64"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="9">
         <v>0</v>
       </c>
@@ -4537,12 +4590,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A66" s="90"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="63" t="s">
+      <c r="A66" s="69"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="9">
         <v>0</v>
       </c>
@@ -4557,12 +4610,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A67" s="90"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="63" t="s">
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="64"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="9">
         <v>0</v>
       </c>
@@ -4577,12 +4630,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A68" s="90"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="63" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="64"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="9">
         <v>0</v>
       </c>
@@ -4597,12 +4650,12 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A69" s="90"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="63" t="s">
+      <c r="A69" s="69"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="64"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="9">
         <v>0</v>
       </c>
@@ -4617,31 +4670,31 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A70" s="90"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="78" t="s">
+      <c r="A70" s="69"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="79"/>
+      <c r="D70" s="111"/>
       <c r="E70" s="17">
         <v>0</v>
       </c>
-      <c r="F70" s="134" t="s">
+      <c r="F70" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="G70" s="134" t="s">
+      <c r="G70" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="H70" s="134" t="s">
+      <c r="H70" s="48" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A71" s="120" t="s">
+      <c r="A71" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="121"/>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="72"/>
+      <c r="C71" s="50" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -4650,20 +4703,20 @@
       <c r="E71" s="18">
         <v>3</v>
       </c>
-      <c r="F71" s="135" t="s">
+      <c r="F71" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="135" t="s">
+      <c r="G71" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="H71" s="135" t="s">
+      <c r="H71" s="49" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A72" s="90"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="57"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="24" t="s">
         <v>38</v>
       </c>
@@ -4681,9 +4734,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A73" s="90"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="20" t="s">
         <v>37</v>
       </c>
@@ -4701,9 +4754,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A74" s="90"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="69"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="117" t="s">
         <v>71</v>
       </c>
       <c r="D74" s="22" t="s">
@@ -4723,9 +4776,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A75" s="90"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="22" t="s">
         <v>40</v>
       </c>
@@ -4743,9 +4796,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.95" customHeight="1">
-      <c r="A76" s="107"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="22" t="s">
         <v>41</v>
       </c>
@@ -4763,14 +4816,14 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="51" t="s">
+      <c r="B77" s="76"/>
+      <c r="C77" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="51"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="31" t="s">
         <v>25</v>
       </c>
@@ -4785,12 +4838,12 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1">
-      <c r="A78" s="52"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="48" t="s">
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="42" t="s">
         <v>265</v>
       </c>
@@ -4800,17 +4853,17 @@
       <c r="G78" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="H78" s="43" t="s">
+      <c r="H78" s="62" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="46" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="D79" s="47"/>
+      <c r="D79" s="66"/>
       <c r="E79" s="42" t="s">
         <v>269</v>
       </c>
@@ -4820,15 +4873,15 @@
       <c r="G79" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="H79" s="44"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1">
-      <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="46" t="s">
+      <c r="A80" s="77"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="47"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="42" t="s">
         <v>273</v>
       </c>
@@ -4838,15 +4891,15 @@
       <c r="G80" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="H80" s="44"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1">
-      <c r="A81" s="54"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="46" t="s">
+      <c r="A81" s="79"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="66"/>
       <c r="E81" s="42" t="s">
         <v>277</v>
       </c>
@@ -4856,17 +4909,17 @@
       <c r="G81" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="H81" s="45"/>
+      <c r="H81" s="64"/>
     </row>
     <row r="82" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="51" t="s">
+      <c r="B82" s="78"/>
+      <c r="C82" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="51"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="31" t="s">
         <v>25</v>
       </c>
@@ -4881,12 +4934,12 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="48" t="s">
+      <c r="A83" s="77"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="42" t="s">
         <v>282</v>
       </c>
@@ -4896,17 +4949,17 @@
       <c r="G83" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="H83" s="43" t="s">
+      <c r="H83" s="62" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1">
-      <c r="A84" s="52"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="46" t="s">
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="47"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="42" t="s">
         <v>286</v>
       </c>
@@ -4916,15 +4969,15 @@
       <c r="G84" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="H84" s="44"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1">
-      <c r="A85" s="52"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="46" t="s">
+      <c r="A85" s="77"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="D85" s="47"/>
+      <c r="D85" s="66"/>
       <c r="E85" s="42" t="s">
         <v>290</v>
       </c>
@@ -4934,15 +4987,15 @@
       <c r="G85" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H85" s="44"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1">
-      <c r="A86" s="52"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="46" t="s">
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="D86" s="47"/>
+      <c r="D86" s="66"/>
       <c r="E86" s="42" t="s">
         <v>294</v>
       </c>
@@ -4952,15 +5005,15 @@
       <c r="G86" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="H86" s="44"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1">
-      <c r="A87" s="52"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="46" t="s">
+      <c r="A87" s="77"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="47"/>
+      <c r="D87" s="66"/>
       <c r="E87" s="42" t="s">
         <v>298</v>
       </c>
@@ -4970,15 +5023,15 @@
       <c r="G87" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="H87" s="44"/>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1">
-      <c r="A88" s="52"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="46" t="s">
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="D88" s="47"/>
+      <c r="D88" s="66"/>
       <c r="E88" s="42" t="s">
         <v>302</v>
       </c>
@@ -4988,15 +5041,15 @@
       <c r="G88" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="H88" s="44"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1">
-      <c r="A89" s="52"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="46" t="s">
+      <c r="A89" s="77"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="47"/>
+      <c r="D89" s="66"/>
       <c r="E89" s="42" t="s">
         <v>306</v>
       </c>
@@ -5006,15 +5059,15 @@
       <c r="G89" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="H89" s="44"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="46" t="s">
+      <c r="A90" s="79"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="D90" s="47"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="42" t="s">
         <v>310</v>
       </c>
@@ -5024,7 +5077,7 @@
       <c r="G90" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="H90" s="45"/>
+      <c r="H90" s="64"/>
     </row>
     <row r="91" spans="1:8" ht="12" customHeight="1">
       <c r="A91" s="10"/>
@@ -5033,14 +5086,14 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="51" t="s">
+      <c r="B92" s="131"/>
+      <c r="C92" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="51"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="31" t="s">
         <v>25</v>
       </c>
@@ -5055,12 +5108,12 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="48" t="s">
+      <c r="A93" s="131"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="61"/>
       <c r="E93" s="42" t="s">
         <v>315</v>
       </c>
@@ -5070,17 +5123,17 @@
       <c r="G93" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="H93" s="43" t="s">
+      <c r="H93" s="62" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="46" t="s">
+      <c r="A94" s="131"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="D94" s="47"/>
+      <c r="D94" s="66"/>
       <c r="E94" s="42" t="s">
         <v>320</v>
       </c>
@@ -5090,15 +5143,15 @@
       <c r="G94" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="H94" s="44"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="46" t="s">
+      <c r="A95" s="131"/>
+      <c r="B95" s="131"/>
+      <c r="C95" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="D95" s="47"/>
+      <c r="D95" s="66"/>
       <c r="E95" s="42" t="s">
         <v>324</v>
       </c>
@@ -5108,15 +5161,15 @@
       <c r="G95" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="H95" s="44"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="46" t="s">
+      <c r="A96" s="131"/>
+      <c r="B96" s="131"/>
+      <c r="C96" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="D96" s="47"/>
+      <c r="D96" s="66"/>
       <c r="E96" s="42" t="s">
         <v>328</v>
       </c>
@@ -5126,15 +5179,15 @@
       <c r="G96" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="H96" s="44"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="46" t="s">
+      <c r="A97" s="131"/>
+      <c r="B97" s="131"/>
+      <c r="C97" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="D97" s="47"/>
+      <c r="D97" s="66"/>
       <c r="E97" s="42" t="s">
         <v>332</v>
       </c>
@@ -5144,15 +5197,15 @@
       <c r="G97" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="H97" s="44"/>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="46" t="s">
+      <c r="A98" s="131"/>
+      <c r="B98" s="131"/>
+      <c r="C98" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="D98" s="47"/>
+      <c r="D98" s="66"/>
       <c r="E98" s="42" t="s">
         <v>336</v>
       </c>
@@ -5162,7 +5215,7 @@
       <c r="G98" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="H98" s="45"/>
+      <c r="H98" s="64"/>
     </row>
     <row r="99" spans="1:8" ht="12" customHeight="1">
       <c r="A99" s="10"/>
@@ -5171,14 +5224,14 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A100" s="66" t="s">
+      <c r="A100" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="51" t="s">
+      <c r="B100" s="133"/>
+      <c r="C100" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="51"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="31" t="s">
         <v>25</v>
       </c>
@@ -5193,12 +5246,12 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1">
-      <c r="A101" s="68"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="48" t="s">
+      <c r="A101" s="134"/>
+      <c r="B101" s="135"/>
+      <c r="C101" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="D101" s="49"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="42" t="s">
         <v>340</v>
       </c>
@@ -5208,17 +5261,17 @@
       <c r="G101" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="H101" s="50" t="s">
+      <c r="H101" s="138" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18" customHeight="1">
-      <c r="A102" s="68"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="46" t="s">
+      <c r="A102" s="134"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="D102" s="47"/>
+      <c r="D102" s="66"/>
       <c r="E102" s="42" t="s">
         <v>345</v>
       </c>
@@ -5228,15 +5281,15 @@
       <c r="G102" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="H102" s="50"/>
+      <c r="H102" s="138"/>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1">
-      <c r="A103" s="68"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="46" t="s">
+      <c r="A103" s="134"/>
+      <c r="B103" s="135"/>
+      <c r="C103" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="D103" s="47"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="42" t="s">
         <v>349</v>
       </c>
@@ -5246,15 +5299,15 @@
       <c r="G103" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="H103" s="50"/>
+      <c r="H103" s="138"/>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1">
-      <c r="A104" s="70"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="46" t="s">
+      <c r="A104" s="136"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="66"/>
       <c r="E104" s="42" t="s">
         <v>353</v>
       </c>
@@ -5264,7 +5317,7 @@
       <c r="G104" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="H104" s="50"/>
+      <c r="H104" s="138"/>
     </row>
     <row r="105" spans="1:8" ht="12" customHeight="1">
       <c r="A105" s="10"/>
@@ -5273,14 +5326,14 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:8" ht="24" customHeight="1" thickBot="1">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="51" t="s">
+      <c r="B106" s="133"/>
+      <c r="C106" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="51"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="31" t="s">
         <v>25</v>
       </c>
@@ -5295,12 +5348,12 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A107" s="68"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="48" t="s">
+      <c r="A107" s="134"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="D107" s="49"/>
+      <c r="D107" s="61"/>
       <c r="E107" s="42" t="s">
         <v>357</v>
       </c>
@@ -5315,12 +5368,12 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A108" s="68"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="46" t="s">
+      <c r="A108" s="134"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="D108" s="47"/>
+      <c r="D108" s="66"/>
       <c r="E108" s="42" t="s">
         <v>361</v>
       </c>
@@ -5335,12 +5388,12 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A109" s="68"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="46" t="s">
+      <c r="A109" s="134"/>
+      <c r="B109" s="135"/>
+      <c r="C109" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="D109" s="47"/>
+      <c r="D109" s="66"/>
       <c r="E109" s="42" t="s">
         <v>365</v>
       </c>
@@ -5355,12 +5408,12 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A110" s="68"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="46" t="s">
+      <c r="A110" s="134"/>
+      <c r="B110" s="135"/>
+      <c r="C110" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="D110" s="47"/>
+      <c r="D110" s="66"/>
       <c r="E110" s="42" t="s">
         <v>369</v>
       </c>
@@ -5375,12 +5428,12 @@
       </c>
     </row>
     <row r="111" spans="1:8" s="27" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A111" s="70"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="46" t="s">
+      <c r="A111" s="136"/>
+      <c r="B111" s="137"/>
+      <c r="C111" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="D111" s="47"/>
+      <c r="D111" s="66"/>
       <c r="E111" s="42" t="s">
         <v>373</v>
       </c>
@@ -5456,10 +5509,10 @@
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="E118" s="59"/>
+      <c r="E118" s="98"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
@@ -5494,59 +5547,31 @@
     <row r="131" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="H83:H90"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A42:B70"/>
-    <mergeCell ref="A71:B76"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A77:B81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A12:B18"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -5571,37 +5596,55 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A82:B90"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A12:B18"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A42:B70"/>
+    <mergeCell ref="A71:B76"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A77:B81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="A82:B90"/>
     <mergeCell ref="A92:B98"/>
-    <mergeCell ref="C92:D92"/>
     <mergeCell ref="A100:B104"/>
     <mergeCell ref="A106:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
     <mergeCell ref="H93:H98"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
@@ -5610,7 +5653,17 @@
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
